--- a/cases/NorthSea/Networks_Connections.xlsx
+++ b/cases/NorthSea/Networks_Connections.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F99B139-7478-44FF-8F10-4F3C94E507DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC9ADE0-CB7E-4D40-B3AE-3520C4CC9EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +119,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,14 +153,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,10 +447,10 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
     <col min="2" max="24" width="27.5703125" style="1" customWidth="1"/>
@@ -592,11 +608,11 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f>2*2635</f>
         <v>5270</v>
       </c>
@@ -739,5 +755,6 @@
     <sortCondition ref="C27:C34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>